--- a/documents/stats.xlsx
+++ b/documents/stats.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Developer</t>
   </si>
   <si>
-    <t>Impact</t>
-  </si>
-  <si>
     <t>Risk</t>
   </si>
   <si>
@@ -48,7 +45,22 @@
     <t>Mcebisi</t>
   </si>
   <si>
-    <t>Sindisiwek</t>
+    <t>Sindisiwe</t>
+  </si>
+  <si>
+    <t>Rtt100</t>
+  </si>
+  <si>
+    <t>Ptt100</t>
+  </si>
+  <si>
+    <t>Dtt100</t>
+  </si>
+  <si>
+    <t>Sinothile</t>
+  </si>
+  <si>
+    <t>Congative Load</t>
   </si>
 </sst>
 </file>
@@ -389,16 +401,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -407,119 +420,208 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>351</v>
       </c>
       <c r="C2">
         <v>0.01</v>
       </c>
       <c r="D2">
-        <v>0.31</v>
+        <v>4.49</v>
       </c>
       <c r="E2">
-        <v>0.11</v>
+        <v>0.1</v>
+      </c>
+      <c r="F2">
+        <v>22.27</v>
+      </c>
+      <c r="G2">
+        <v>27.32</v>
+      </c>
+      <c r="H2">
+        <f>G2-F2</f>
+        <v>5.0500000000000007</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="C3">
         <v>0.12</v>
       </c>
       <c r="D3">
-        <v>0.94</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E3">
-        <v>0.18</v>
+        <v>0.24</v>
+      </c>
+      <c r="F3">
+        <v>26.11</v>
+      </c>
+      <c r="G3">
+        <v>42.92</v>
+      </c>
+      <c r="H3">
+        <v>16.809999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>120</v>
       </c>
       <c r="C4">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="D4">
-        <v>3.75</v>
+        <v>3.83</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F4">
+        <v>6.53</v>
+      </c>
+      <c r="G4">
+        <v>11.6</v>
+      </c>
+      <c r="H4">
+        <v>5.07</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="C5">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="D5">
-        <v>1.82</v>
+        <v>2.13</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>0.39</v>
+      </c>
+      <c r="F5">
+        <v>23.42</v>
+      </c>
+      <c r="G5">
+        <v>53.48</v>
+      </c>
+      <c r="H5">
+        <v>30.06</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>148</v>
+        <v>292</v>
       </c>
       <c r="C6">
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D6">
-        <v>4.62</v>
+        <v>3.2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.17</v>
+      </c>
+      <c r="F6">
+        <v>23.53</v>
+      </c>
+      <c r="G6">
+        <v>32.89</v>
+      </c>
+      <c r="H6">
+        <v>9.36</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="C7">
-        <v>0.01</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D7">
-        <v>2.5299999999999998</v>
+        <v>5.27</v>
       </c>
       <c r="E7">
-        <v>0.01</v>
+        <v>0.23</v>
+      </c>
+      <c r="F7">
+        <v>18.98</v>
+      </c>
+      <c r="G7">
+        <v>30.21</v>
+      </c>
+      <c r="H7">
+        <v>11.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>277</v>
+      </c>
+      <c r="C8">
+        <v>0.11</v>
+      </c>
+      <c r="D8">
+        <v>3.28</v>
+      </c>
+      <c r="E8">
+        <v>0.2</v>
+      </c>
+      <c r="F8">
+        <v>22.94</v>
+      </c>
+      <c r="G8">
+        <v>34.6</v>
+      </c>
+      <c r="H8">
+        <v>11.66</v>
       </c>
     </row>
   </sheetData>

--- a/documents/stats.xlsx
+++ b/documents/stats.xlsx
@@ -404,14 +404,14 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="A5:H5"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -446,26 +446,26 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C2">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="D2">
-        <v>4.49</v>
+        <v>6.58</v>
       </c>
       <c r="E2">
         <v>0.1</v>
       </c>
       <c r="F2">
-        <v>22.27</v>
+        <v>15.2</v>
       </c>
       <c r="G2">
-        <v>27.32</v>
+        <v>18.66</v>
       </c>
       <c r="H2">
         <f>G2-F2</f>
-        <v>5.0500000000000007</v>
+        <v>3.4600000000000009</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -473,25 +473,26 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C3">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="D3">
-        <v>1.0900000000000001</v>
+        <v>2.17</v>
       </c>
       <c r="E3">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="F3">
-        <v>26.11</v>
+        <v>15.38</v>
       </c>
       <c r="G3">
-        <v>42.92</v>
+        <v>21.05</v>
       </c>
       <c r="H3">
-        <v>16.809999999999999</v>
+        <f t="shared" ref="H3:H5" si="0">G3-F3</f>
+        <v>5.67</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -499,7 +500,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>120</v>
+        <v>276</v>
       </c>
       <c r="C4">
         <v>0.06</v>
@@ -517,7 +518,8 @@
         <v>11.6</v>
       </c>
       <c r="H4">
-        <v>5.07</v>
+        <f t="shared" si="0"/>
+        <v>5.0699999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -525,25 +527,26 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="C5">
-        <v>0.21</v>
+        <v>0.01</v>
       </c>
       <c r="D5">
-        <v>2.13</v>
+        <v>2.65</v>
       </c>
       <c r="E5">
-        <v>0.39</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F5">
-        <v>23.42</v>
+        <v>25.13</v>
       </c>
       <c r="G5">
-        <v>53.48</v>
+        <v>45.45</v>
       </c>
       <c r="H5">
-        <v>30.06</v>
+        <f t="shared" si="0"/>
+        <v>20.320000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -551,25 +554,26 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>292</v>
+        <v>144</v>
       </c>
       <c r="C6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D6">
-        <v>3.2</v>
+        <v>2.71</v>
       </c>
       <c r="E6">
-        <v>0.17</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F6">
-        <v>23.53</v>
+        <v>24.63</v>
       </c>
       <c r="G6">
-        <v>32.89</v>
+        <v>44.44</v>
       </c>
       <c r="H6">
-        <v>9.36</v>
+        <f>G6-F6</f>
+        <v>19.809999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -577,25 +581,26 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>318</v>
+        <v>88</v>
       </c>
       <c r="C7">
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D7">
-        <v>5.27</v>
+        <v>8.56</v>
       </c>
       <c r="E7">
-        <v>0.23</v>
+        <v>0.51</v>
       </c>
       <c r="F7">
-        <v>18.98</v>
+        <v>11.68</v>
       </c>
       <c r="G7">
-        <v>30.21</v>
+        <v>36.36</v>
       </c>
       <c r="H7">
-        <v>11.23</v>
+        <f t="shared" ref="H7:H8" si="1">G7-F7</f>
+        <v>24.68</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -603,25 +608,26 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>277</v>
+        <v>213</v>
       </c>
       <c r="C8">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="D8">
-        <v>3.28</v>
+        <v>3.8</v>
       </c>
       <c r="E8">
-        <v>0.2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F8">
-        <v>22.94</v>
+        <v>26.32</v>
       </c>
       <c r="G8">
-        <v>34.6</v>
+        <v>30.03</v>
       </c>
       <c r="H8">
-        <v>11.66</v>
+        <f t="shared" si="1"/>
+        <v>3.7100000000000009</v>
       </c>
     </row>
   </sheetData>

--- a/documents/stats.xlsx
+++ b/documents/stats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Developer</t>
   </si>
@@ -61,13 +61,22 @@
   </si>
   <si>
     <t>Congative Load</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>- not many tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,13 +92,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,14 +122,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -401,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="A2" sqref="A2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -413,9 +438,10 @@
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,88 +467,97 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>343</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.09</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>6.58</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>0.1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>15.2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>18.66</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <f>G2-F2</f>
         <v>3.4600000000000009</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>152</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.04</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>2.17</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0.16</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>15.38</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>21.05</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <f t="shared" ref="H3:H5" si="0">G3-F3</f>
         <v>5.67</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>276</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0.06</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>3.83</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>6.53</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>11.6</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
         <v>5.0699999999999994</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -549,7 +584,7 @@
         <v>20.320000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -576,7 +611,7 @@
         <v>19.809999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -603,31 +638,34 @@
         <v>24.68</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>213</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0.06</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>3.8</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>26.32</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>30.03</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <f t="shared" si="1"/>
         <v>3.7100000000000009</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/documents/stats.xlsx
+++ b/documents/stats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Developer</t>
   </si>
@@ -70,13 +70,16 @@
   </si>
   <si>
     <t xml:space="preserve">+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pdf Reporting Poc Stats Apose Bootcamp Pt 2 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,8 +102,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +135,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -122,18 +157,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -426,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H4"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -441,234 +485,249 @@
     <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="18.75">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>343</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="D2" s="2">
-        <v>6.58</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>15.2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>18.66</v>
-      </c>
-      <c r="H2" s="2">
-        <f>G2-F2</f>
-        <v>3.4600000000000009</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>343</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6.58</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>15.2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>18.66</v>
+      </c>
+      <c r="H3" s="2">
+        <f>G3-F3</f>
+        <v>3.4600000000000009</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="6">
         <v>152</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="6">
         <v>0.04</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="6">
         <v>2.17</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="6">
         <v>0.16</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="6">
         <v>15.38</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G4" s="6">
         <v>21.05</v>
       </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H5" si="0">G3-F3</f>
+      <c r="H4" s="6">
+        <f t="shared" ref="H4:H6" si="0">G4-F4</f>
         <v>5.67</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
         <v>276</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>0.06</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>3.83</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
         <v>6.53</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G5" s="2">
         <v>11.6</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>5.0699999999999994</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="4">
         <v>141</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="4">
         <v>0.01</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="4">
         <v>2.65</v>
       </c>
-      <c r="E5">
+      <c r="E6" s="4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F5">
+      <c r="F6" s="4">
         <v>25.13</v>
       </c>
-      <c r="G5">
+      <c r="G6" s="4">
         <v>45.45</v>
       </c>
-      <c r="H5">
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
         <v>20.320000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="4">
         <v>144</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="4">
         <v>0.04</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="4">
         <v>2.71</v>
       </c>
-      <c r="E6">
+      <c r="E7" s="4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F6">
+      <c r="F7" s="4">
         <v>24.63</v>
       </c>
-      <c r="G6">
+      <c r="G7" s="4">
         <v>44.44</v>
       </c>
-      <c r="H6">
-        <f>G6-F6</f>
+      <c r="H7" s="4">
+        <f>G7-F7</f>
         <v>19.809999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="4">
         <v>88</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="4">
         <v>0.02</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="4">
         <v>8.56</v>
       </c>
-      <c r="E7">
+      <c r="E8" s="4">
         <v>0.51</v>
       </c>
-      <c r="F7">
+      <c r="F8" s="4">
         <v>11.68</v>
       </c>
-      <c r="G7">
+      <c r="G8" s="4">
         <v>36.36</v>
       </c>
-      <c r="H7">
-        <f t="shared" ref="H7:H8" si="1">G7-F7</f>
+      <c r="H8" s="4">
+        <f t="shared" ref="H8:H9" si="1">G8-F8</f>
         <v>24.68</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
         <v>213</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="2">
         <v>0.06</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <v>3.8</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F9" s="2">
         <v>26.32</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G9" s="2">
         <v>30.03</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H9" s="2">
         <f t="shared" si="1"/>
         <v>3.7100000000000009</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
